--- a/Meeting_Materials/Tan_Jia_Xuan_Application_to_Employ_Research_Assistants_Form.xlsx
+++ b/Meeting_Materials/Tan_Jia_Xuan_Application_to_Employ_Research_Assistants_Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albertlor\Academic\URECA\Meeting_Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70853C8-FA75-4712-9BED-15A03EC847FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614456D0-784D-4755-B7AE-1D2584170259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Job Title:</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>TAN JIA XUAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physics and Applied Physics			</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2240900J	</t>
   </si>
 </sst>
 </file>
@@ -922,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:L24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1091,7 +1097,7 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="57">
-        <v>44932</v>
+        <v>45078</v>
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="58"/>
@@ -1132,7 +1138,7 @@
       </c>
       <c r="C11" s="14"/>
       <c r="G11" s="41">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
@@ -1315,14 +1321,18 @@
       <c r="C22" s="14"/>
       <c r="D22" s="10"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="62"/>
+      <c r="F22" s="62" t="s">
+        <v>31</v>
+      </c>
       <c r="G22" s="62"/>
       <c r="H22" s="62"/>
       <c r="I22" s="62"/>
       <c r="J22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="62"/>
+      <c r="K22" s="62" t="s">
+        <v>32</v>
+      </c>
       <c r="L22" s="62"/>
       <c r="M22" s="4"/>
     </row>
